--- a/modules/test/data/test-01.xlsx
+++ b/modules/test/data/test-01.xlsx
@@ -95,9 +95,6 @@
     <t>3 підгрупа</t>
   </si>
   <si>
-    <t>Понеділок</t>
-  </si>
-  <si>
     <t>Чис.</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>Мет.ан.багатов.даних (пр.) Мацуга О.М. 3/47</t>
+  </si>
+  <si>
+    <t>П`ятниця</t>
   </si>
 </sst>
 </file>
@@ -422,113 +422,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,172 +822,172 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4" t="s">
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4" t="s">
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -1015,513 +1015,563 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="3" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="29"/>
+      <c r="I8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9" t="s">
+      <c r="J8" s="29"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9" t="s">
+      <c r="M8" s="36"/>
+      <c r="N8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9" t="s">
+      <c r="O8" s="36"/>
+      <c r="P8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="3" t="s">
+      <c r="Q8" s="36"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="29">
         <v>31</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29">
         <v>25</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3">
+      <c r="H9" s="29"/>
+      <c r="I9" s="29">
         <v>9</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9">
+      <c r="J9" s="29"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="36">
         <v>22</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9">
+      <c r="M9" s="36"/>
+      <c r="N9" s="36">
         <v>21</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9">
+      <c r="O9" s="36"/>
+      <c r="P9" s="36">
         <v>14</v>
       </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="3">
+      <c r="Q9" s="36"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="29">
         <v>30</v>
       </c>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="10" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11" t="s">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="10" t="s">
+      <c r="R10" s="7"/>
+      <c r="S10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="10" t="s">
+      <c r="T10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="U10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="29">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="14"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="13" t="s">
-        <v>25</v>
+      <c r="A12" s="31"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="16"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="16"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="17" t="s">
+      <c r="R12" s="11"/>
+      <c r="S12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="29">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21" t="s">
+      <c r="H13" s="1"/>
+      <c r="I13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="16"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="11"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="22" t="s">
+      <c r="P13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T13" s="20"/>
-      <c r="U13" s="24"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="28"/>
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="25"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="16"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="11"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="24"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="28"/>
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="29">
         <v>3</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20" t="s">
+      <c r="H15" s="25"/>
+      <c r="I15" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="16"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20" t="s">
+      <c r="Q15" s="25"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="T15" s="20"/>
-      <c r="U15" s="24"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="28"/>
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="16"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="1:22" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="22">
+        <v>4</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="1:22" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="26">
-        <v>4</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="E17" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="T17" s="11"/>
+      <c r="U17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:22" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="29" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="25"/>
+      <c r="N18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="30" t="s">
+      <c r="O18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="T17" s="16"/>
-      <c r="U17" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="V17" s="1"/>
-    </row>
-    <row r="18" spans="1:22" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="20" t="s">
+      <c r="P18" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="M18" s="20"/>
-      <c r="N18" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="O18" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="P18" s="20" t="s">
+      <c r="Q18" s="25"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="29" t="s">
+      <c r="T18" s="21"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:22" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="22">
+        <v>5</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>51</v>
-      </c>
-      <c r="T18" s="29"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="1"/>
-    </row>
-    <row r="19" spans="1:22" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="26">
-        <v>5</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>52</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="20" t="s">
+      <c r="J19" s="25"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="34"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="17"/>
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="33"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="24"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20" s="20"/>
-      <c r="N20" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="O20" s="30" t="s">
+      <c r="K20" s="11"/>
+      <c r="L20" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="25"/>
+      <c r="N20" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="P20" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="34"/>
+      <c r="O20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="17"/>
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="34"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="17"/>
       <c r="V21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="S13:U14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q16"/>
+    <mergeCell ref="S15:U16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="I13:J14"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="D19:D20"/>
@@ -1535,56 +1585,6 @@
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="S13:U14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q16"/>
-    <mergeCell ref="S15:U16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="S2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
